--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yousheng/PycharmProjects/excel2json/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="820" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="2660" yWindow="1660" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -96,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +124,24 @@
       <sz val="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,8 +160,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -143,11 +173,20 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,18 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" customHeight="1">
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -501,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="80" customHeight="1">
+    <row r="2" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80" customHeight="1">
+    <row r="3" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -535,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80" customHeight="1">
+    <row r="4" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -552,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="80" customHeight="1">
+    <row r="5" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,10 +613,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>